--- a/Data_clean/MCAS/Estados_US/Edos_USA_2018/KENTUCKY_2018.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2018/KENTUCKY_2018.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D943"/>
+  <dimension ref="A1:D937"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C6">
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C8">
@@ -719,7 +719,7 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C26">
@@ -758,7 +758,7 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C29">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C31">
@@ -836,7 +836,7 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C35">
@@ -875,7 +875,7 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C38">
@@ -1083,7 +1083,7 @@
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C54">
@@ -1096,7 +1096,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C55">
@@ -1174,7 +1174,7 @@
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C61">
@@ -1265,7 +1265,7 @@
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C68">
@@ -1660,7 +1660,7 @@
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C98">
@@ -1777,7 +1777,7 @@
     <row r="107">
       <c r="B107" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C107">
@@ -1977,7 +1977,7 @@
     <row r="122">
       <c r="B122" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C122">
@@ -2151,7 +2151,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -2369,7 +2369,7 @@
     <row r="151">
       <c r="B151" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C151">
@@ -2460,7 +2460,7 @@
     <row r="158">
       <c r="B158" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C158">
@@ -2486,7 +2486,7 @@
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C160">
@@ -2499,7 +2499,7 @@
     <row r="161">
       <c r="B161" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C161">
@@ -2577,12 +2577,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C167">
@@ -2595,7 +2595,7 @@
     <row r="168">
       <c r="B168" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C168">
@@ -2608,7 +2608,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C169">
@@ -2647,7 +2647,7 @@
     <row r="172">
       <c r="B172" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C172">
@@ -2790,7 +2790,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C183">
@@ -2842,7 +2842,7 @@
     <row r="187">
       <c r="B187" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C187">
@@ -2855,7 +2855,7 @@
     <row r="188">
       <c r="B188" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C188">
@@ -2933,7 +2933,7 @@
     <row r="194">
       <c r="B194" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C194">
@@ -3011,7 +3011,7 @@
     <row r="200">
       <c r="B200" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C200">
@@ -3102,7 +3102,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C207">
@@ -3167,7 +3167,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C212">
@@ -3219,7 +3219,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C216">
@@ -3232,7 +3232,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C217">
@@ -3341,7 +3341,7 @@
     <row r="225">
       <c r="B225" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C225">
@@ -3354,7 +3354,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C226">
@@ -3367,7 +3367,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C227">
@@ -3445,7 +3445,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C233">
@@ -3575,7 +3575,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C243">
@@ -3601,7 +3601,7 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C245">
@@ -3627,7 +3627,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C247">
@@ -3640,7 +3640,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C248">
@@ -3705,7 +3705,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C253">
@@ -3788,7 +3788,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C259">
@@ -3827,7 +3827,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C262">
@@ -3840,7 +3840,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C263">
@@ -3879,7 +3879,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C266">
@@ -3892,7 +3892,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C267">
@@ -3918,7 +3918,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C269">
@@ -3931,7 +3931,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C270">
@@ -3957,7 +3957,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C272">
@@ -3970,7 +3970,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C273">
@@ -3983,7 +3983,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C274">
@@ -4022,7 +4022,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C277">
@@ -4035,7 +4035,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C278">
@@ -4074,7 +4074,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C281">
@@ -4139,7 +4139,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C286">
@@ -4152,7 +4152,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C287">
@@ -4178,7 +4178,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C289">
@@ -4321,7 +4321,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C300">
@@ -4347,7 +4347,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C302">
@@ -4373,7 +4373,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C304">
@@ -4412,7 +4412,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C307">
@@ -4612,7 +4612,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C322">
@@ -4664,7 +4664,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C326">
@@ -4690,7 +4690,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C328">
@@ -4729,7 +4729,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C331">
@@ -4807,7 +4807,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C337">
@@ -4820,7 +4820,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C338">
@@ -4833,7 +4833,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C339">
@@ -4859,7 +4859,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C341">
@@ -4872,7 +4872,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C342">
@@ -4885,7 +4885,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C343">
@@ -4989,7 +4989,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C351">
@@ -5002,7 +5002,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C352">
@@ -5015,7 +5015,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C353">
@@ -5132,7 +5132,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C362">
@@ -5145,7 +5145,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C363">
@@ -5228,7 +5228,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C369">
@@ -5241,7 +5241,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C370">
@@ -5306,7 +5306,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C375">
@@ -5332,7 +5332,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C377">
@@ -5345,7 +5345,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C378">
@@ -5410,7 +5410,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C383">
@@ -5436,7 +5436,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C385">
@@ -5488,7 +5488,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C389">
@@ -5527,7 +5527,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C392">
@@ -5540,7 +5540,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C393">
@@ -5579,7 +5579,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C396">
@@ -5605,7 +5605,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C398">
@@ -5618,7 +5618,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C399">
@@ -5631,7 +5631,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C400">
@@ -5709,7 +5709,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C406">
@@ -5735,7 +5735,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C408">
@@ -5896,7 +5896,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C420">
@@ -5909,7 +5909,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C421">
@@ -6416,7 +6416,7 @@
     <row r="460">
       <c r="B460" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C460">
@@ -6694,7 +6694,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C481">
@@ -6868,7 +6868,7 @@
     <row r="494">
       <c r="B494" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C494">
@@ -6977,7 +6977,7 @@
     <row r="502">
       <c r="B502" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C502">
@@ -7003,7 +7003,7 @@
     <row r="504">
       <c r="B504" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C504">
@@ -7034,7 +7034,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C506">
@@ -7086,7 +7086,7 @@
     <row r="510">
       <c r="B510" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C510">
@@ -7125,7 +7125,7 @@
     <row r="513">
       <c r="B513" t="inlineStr">
         <is>
-          <t>El Barrio de la Soledad</t>
+          <t>El Barrio De La Soledad</t>
         </is>
       </c>
       <c r="C513">
@@ -7138,7 +7138,7 @@
     <row r="514">
       <c r="B514" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C514">
@@ -7151,7 +7151,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C515">
@@ -7164,7 +7164,7 @@
     <row r="516">
       <c r="B516" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C516">
@@ -7177,7 +7177,7 @@
     <row r="517">
       <c r="B517" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C517">
@@ -7190,7 +7190,7 @@
     <row r="518">
       <c r="B518" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C518">
@@ -7203,7 +7203,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C519">
@@ -7268,7 +7268,7 @@
     <row r="524">
       <c r="B524" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C524">
@@ -7281,7 +7281,7 @@
     <row r="525">
       <c r="B525" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C525">
@@ -7294,7 +7294,7 @@
     <row r="526">
       <c r="B526" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C526">
@@ -7359,7 +7359,7 @@
     <row r="531">
       <c r="B531" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C531">
@@ -7450,7 +7450,7 @@
     <row r="538">
       <c r="B538" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C538">
@@ -7541,7 +7541,7 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C545">
@@ -7814,7 +7814,7 @@
     <row r="566">
       <c r="B566" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C566">
@@ -7957,7 +7957,7 @@
     <row r="577">
       <c r="B577" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C577">
@@ -8321,7 +8321,7 @@
     <row r="605">
       <c r="B605" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C605">
@@ -8399,7 +8399,7 @@
     <row r="611">
       <c r="B611" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C611">
@@ -8412,7 +8412,7 @@
     <row r="612">
       <c r="B612" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C612">
@@ -8425,7 +8425,7 @@
     <row r="613">
       <c r="B613" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C613">
@@ -8438,7 +8438,7 @@
     <row r="614">
       <c r="B614" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C614">
@@ -8451,7 +8451,7 @@
     <row r="615">
       <c r="B615" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C615">
@@ -8464,7 +8464,7 @@
     <row r="616">
       <c r="B616" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C616">
@@ -8477,7 +8477,7 @@
     <row r="617">
       <c r="B617" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C617">
@@ -8612,7 +8612,7 @@
     <row r="627">
       <c r="B627" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C627">
@@ -8625,7 +8625,7 @@
     <row r="628">
       <c r="B628" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C628">
@@ -8703,7 +8703,7 @@
     <row r="634">
       <c r="B634" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C634">
@@ -8755,7 +8755,7 @@
     <row r="638">
       <c r="B638" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C638">
@@ -8807,7 +8807,7 @@
     <row r="642">
       <c r="B642" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C642">
@@ -8846,7 +8846,7 @@
     <row r="645">
       <c r="B645" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C645">
@@ -8898,7 +8898,7 @@
     <row r="649">
       <c r="B649" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C649">
@@ -8937,7 +8937,7 @@
     <row r="652">
       <c r="B652" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C652">
@@ -9015,7 +9015,7 @@
     <row r="658">
       <c r="B658" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C658">
@@ -9093,7 +9093,7 @@
     <row r="664">
       <c r="B664" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C664">
@@ -9132,7 +9132,7 @@
     <row r="667">
       <c r="B667" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C667">
@@ -9158,7 +9158,7 @@
     <row r="669">
       <c r="B669" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C669">
@@ -9319,7 +9319,7 @@
     <row r="681">
       <c r="B681" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C681">
@@ -9345,7 +9345,7 @@
     <row r="683">
       <c r="B683" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C683">
@@ -9358,7 +9358,7 @@
     <row r="684">
       <c r="B684" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C684">
@@ -9384,7 +9384,7 @@
     <row r="686">
       <c r="B686" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C686">
@@ -9423,7 +9423,7 @@
     <row r="689">
       <c r="B689" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C689">
@@ -9456,7 +9456,7 @@
         <v>35</v>
       </c>
       <c r="D691">
-        <v>0.009050943884147919</v>
+        <v>0.00905094388414792</v>
       </c>
     </row>
     <row r="692">
@@ -9576,7 +9576,7 @@
     <row r="700">
       <c r="B700" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C700">
@@ -9745,7 +9745,7 @@
     <row r="713">
       <c r="B713" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C713">
@@ -9771,7 +9771,7 @@
     <row r="715">
       <c r="B715" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C715">
@@ -9862,7 +9862,7 @@
     <row r="722">
       <c r="B722" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C722">
@@ -9875,7 +9875,7 @@
     <row r="723">
       <c r="B723" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C723">
@@ -9888,7 +9888,7 @@
     <row r="724">
       <c r="B724" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C724">
@@ -9901,7 +9901,7 @@
     <row r="725">
       <c r="B725" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C725">
@@ -9914,7 +9914,7 @@
     <row r="726">
       <c r="B726" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C726">
@@ -10576,7 +10576,7 @@
     <row r="775">
       <c r="B775" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C775">
@@ -10602,7 +10602,7 @@
     <row r="777">
       <c r="B777" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C777">
@@ -10641,7 +10641,7 @@
     <row r="780">
       <c r="B780" t="inlineStr">
         <is>
-          <t>Sanctórum de Lázaro Cárdenas</t>
+          <t>Sanctórum De Lázaro Cárdenas</t>
         </is>
       </c>
       <c r="C780">
@@ -10802,7 +10802,7 @@
     <row r="792">
       <c r="B792" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C792">
@@ -10854,7 +10854,7 @@
     <row r="796">
       <c r="B796" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C796">
@@ -10932,7 +10932,7 @@
     <row r="802">
       <c r="B802" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C802">
@@ -11088,7 +11088,7 @@
     <row r="814">
       <c r="B814" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C814">
@@ -11231,7 +11231,7 @@
     <row r="825">
       <c r="B825" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C825">
@@ -11270,7 +11270,7 @@
     <row r="828">
       <c r="B828" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C828">
@@ -11413,7 +11413,7 @@
     <row r="839">
       <c r="B839" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C839">
@@ -11465,7 +11465,7 @@
     <row r="843">
       <c r="B843" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C843">
@@ -11504,7 +11504,7 @@
     <row r="846">
       <c r="B846" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C846">
@@ -11686,7 +11686,7 @@
     <row r="860">
       <c r="B860" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C860">
@@ -11725,7 +11725,7 @@
     <row r="863">
       <c r="B863" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C863">
@@ -11803,7 +11803,7 @@
     <row r="869">
       <c r="B869" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C869">
@@ -11816,7 +11816,7 @@
     <row r="870">
       <c r="B870" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C870">
@@ -12031,7 +12031,7 @@
         <v>35</v>
       </c>
       <c r="D886">
-        <v>0.009050943884147919</v>
+        <v>0.00905094388414792</v>
       </c>
     </row>
     <row r="887">
@@ -12333,7 +12333,7 @@
     <row r="909">
       <c r="B909" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C909">
@@ -12463,7 +12463,7 @@
     <row r="919">
       <c r="B919" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C919">
@@ -12476,7 +12476,7 @@
     <row r="920">
       <c r="B920" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C920">
@@ -12489,7 +12489,7 @@
     <row r="921">
       <c r="B921" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C921">
@@ -12606,7 +12606,7 @@
     <row r="930">
       <c r="B930" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C930">
@@ -12632,7 +12632,7 @@
     <row r="932">
       <c r="B932" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C932">
@@ -12705,41 +12705,6 @@
       </c>
       <c r="D937">
         <v>1</v>
-      </c>
-    </row>
-    <row r="939">
-      <c r="A939" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 794,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="940">
-      <c r="A940" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="941">
-      <c r="A941" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="942">
-      <c r="A942" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="943">
-      <c r="A943" t="inlineStr">
-        <is>
-          <t>Diciembre de 2019</t>
-        </is>
       </c>
     </row>
   </sheetData>
